--- a/Code/TopicNumber/Topic_Modeling_Unigram/Evaluation/Coherence_vs_Difference_Hellinger_avg_300_topics.xlsx
+++ b/Code/TopicNumber/Topic_Modeling_Unigram/Evaluation/Coherence_vs_Difference_Hellinger_avg_300_topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\Code\TopicNumber\Topic_Modeling_Unigram\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\BachelorTopicModeling\Code\TopicNumber\Topic_Modeling_Unigram\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99847088-50A1-404F-A728-906828E432B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECBA881-79CE-4BBD-ACBD-DAE230C9A548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21900" windowHeight="14295"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coherence_vs_Difference_Helling" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Kohärenz: u_mass</t>
+  </si>
+  <si>
+    <t>Distanz: Hellinger Mittellwert</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1697,7 +1708,4775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Unigramme</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Helling!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kohärenz: u_mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Helling!$B$2:$KO$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.28584917297358498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53575779829499204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60706300649322598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58272958525986696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92014286357987796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91972040163785096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70170340214047799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76861812745784996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941339808249683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09862212939806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1410660819185501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2461969826536301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3251219970061801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35053492456424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4494092296561101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4707639374469801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3721708173835201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.28628460911049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.38194338736134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4263045666988501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4000542402210301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4571098463565499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.58980478093613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54103003978256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6173589678282001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52957234975523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.61398254834739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.59536723940109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.63191566918959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7381283403885499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7086582202603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8977731674734699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.71036250092376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.82402975579787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9005960566862601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8213894596357001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8011149512161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8647575024432601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.80380963118669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0504059805414601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0090365419828098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.79147400086289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.98054274783077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9333960227992599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0521775703959402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8886365327955901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.00777444196508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0421619934833499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.07015009851784</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1646999048693898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.18575467576209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.24604686066295</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2412243567546999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2380340370714902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2233584621422899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1434662609239901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2382199397155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1577439238022298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1224170906714601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1836402306057998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.15529771171206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1914916986993398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2392660794839299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2911725353958001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2868610491629702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3575410631807898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.22966616186079</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2670569212990599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.27499953704636</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.19632190921019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2081549242612599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2941696674015901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2096353128332602</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3040407093828001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2103253743901901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.28960426631859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3013837386085001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4516629402676799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.44241238933787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.33062736436269</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3663174405605099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6562023369004102</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3267523373547401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.47973593182622</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6832529894025399</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4917817189382201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2664114636394599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6401901680344801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3099042819675102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5755393809713598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3873847767087799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6291379606082699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3894011824130899</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6491628966888401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4389525653939099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.58109978938396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5619223424412398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5142737398605699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8952392327474299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8649844990891902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8482385857594301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8967094097519999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8010109735392001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6355869342082201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.94063711891468</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8855504814258</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.7474498694569101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.82904041670727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0297373567382899</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.86487327903524</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8895736759059498</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.07504664431137</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9043767000273801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.7268450195761398</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.87200051048938</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0755631347644798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9725110632512299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0295863218465899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0264031882809399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.0578693061250299</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0001057926599302</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9642907808639398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.21485229966166</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9411039620439001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.15762405415731</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.96056785198844</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.94758178523412</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.3885581557893598</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.20673651188498</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2676409530961399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.0847112214060801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.1996488954587798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3066823204669902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4105222901792098</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.3599628993433202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.27201635815987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.21064904186863</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.82325649867157</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.4663186008625599</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.4041102209376199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.35036441647709</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4892477799863002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3544476085830599</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1246009711704801</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.46067227941557</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.29535998175129</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5777860327437701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.4441057120622598</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6509875989560001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.4878028165801802</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5563136424187198</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6561314970390102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.5798515669107398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.76083780242976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.5384099114458998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5929537145844899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.48652207730375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.4731870886186802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6331233009161301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.71559742718421</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.5162802606820498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.59250881399712</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7252089417461098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5370394934283</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.5087219548916302</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.5126962938538999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6447488931338099</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.63621428779238</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.8424020625476398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.8979915256915199</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.08031913975225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.00549855064141</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8030578047983599</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7744369218251901</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8227770893978601</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8192308858641399</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.9116634287310701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.7944058212205398</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.9425417156107101</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0309909447531602</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.8650596266206998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8958057358435698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.9785130375903499</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2935077571468803</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.9462464696271198</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.2170703181810199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.29769506506008</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.93753999161313</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.4457085831537597</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.9757292255464001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.1990300867142301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.2408303700436498</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.90253459373276</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.9333168738906399</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9249488795734</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.8617622652120298</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.0988925119773896</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.4027627636950299</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.4809908375973002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.3392869829679404</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.29704243507675</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.3924501922013004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.1706063502825597</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.5293463312020297</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.0997427026430602</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.3512933886708298</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.6762702943055796</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.23598737801382</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.1900602105804801</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2607566648985298</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1630770267339798</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.5943730890710901</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.54254758659203</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2599688643657796</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.2370848237997603</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3968130543465396</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.6669034944982197</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1386505906711504</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.51142988825353</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4378809770273699</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4932924126507698</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.3103085416991496</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.0021602956358802</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.3692536989605397</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.7937926013473504</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4919529459224004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4533491273743904</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.60773637746804</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.3984258244198502</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.5168406643879102</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.5299123255292004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.5247795145020602</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.5851988199745204</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.4324463477677698</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.3980169130347599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.4603634697775902</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.97618581414297</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7572285531385399</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.5566739140891697</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.4106500950049004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.6351010860617103</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.6701787752049198</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.7515813681628103</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9126206225923799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.7263765918194602</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.7946320773259403</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.6749822319767</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.0059203680584803</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.7142203154765898</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5524007700522002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.92483813637336</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.9305597845965696</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.7098006410456499</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.7833192187304903</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.6532176466331201</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.7625665955733396</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.0186624831830997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.8282517507603098</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.57235191259642</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.59178942167358</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.0226880485835297</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.5198279831856496</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.34546315250841</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.1647590731850697</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.1330518539679897</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.1304033381146397</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.9057871776550996</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.1611587609985499</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.9550795901689604</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.3754359144469204</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.0412642784382902</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.5384061015724297</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.9047805792618897</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.8784142686104399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.0682712183183902</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.7277343164945602</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.89789346786743</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.2246723780260096</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.3054498688430503</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.2389405891958498</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.0607564455493597</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.1526794063056496</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.2889594685608197</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.1398036940874201</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.0948502115985299</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.3038886202617999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.6686768305617603</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.1590648761980997</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.2485563573938103</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.2329643031252697</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.1932537478186998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.0587797036263797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.2593041938852103</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.0226099380492899</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.2633002863966496</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.43495018682788</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.3688740238038903</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.53443267551663</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.3382705955442802</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.0876344453974403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5DE-49CC-8F1E-4D6EBC302C1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1411407455"/>
+        <c:axId val="1355558975"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Helling!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distanz: Hellinger Mittellwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Helling!$B$3:$KO$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.922610165226599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86994679885406201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.879588884298934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86820301709487002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84808514191552997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86229984787992997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85932342316593502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85006223017851001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85386637896842599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85875459850004698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85460068126126199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.855121928206941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85983837703798405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86209506363386901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86105473436459801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.859289456177037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86444421621394896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86680681580349395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86561309718647295</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86434488172933899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87210699571559303</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87412192176552805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87565830816472301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87581066282074704</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87740609107782397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.875073947214835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87307740967831204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86955238651045597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87951156981520495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87844610375001897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87543757747274997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87554756379841803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87662314262352803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87929660356605299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87862827958065304</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87842359620181598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88200786735910397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.875850502787069</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.87600063197170797</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87316099373529799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87548870088568598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88142389163324697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88516860069229397</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.88507445933846896</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.88504959613940504</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88594666034911496</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88760641290417397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.88723537705001698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88754319955208605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89058401877351301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.88584060408699195</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.88911292899600503</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.89086597278458102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89029002915379396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88738356134269303</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.88739158353859304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.88882136155002101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88444728808831197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87892901061079998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87704743685672704</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88056496675507301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87894999545613595</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.88204567424638303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.87985190329637097</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.88765262553230895</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.88867623669498697</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88715663124536903</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.88557813882151204</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.88317024883700301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.88738142016302202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.886419997294697</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.88569961267612896</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.87717186026858196</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.87580526227675903</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.87576276205196002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.88891493342366101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.88839921534814803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.87602935830773099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.876103545954247</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.88818838818366896</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.88256940865043698</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.87652690231600805</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88884399293048</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.89245659519876597</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87851955549291605</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88767337990293704</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87687803293119704</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.87789095708718901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.87812678256157495</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.88503899767893401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.87872777142076497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87791263521725804</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.87845238685806304</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.88001973227484998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.88054420120211496</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.88193390053729803</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89017556487892002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.87863919445801297</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.88403367141192601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.8789816357486</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.87985402232157295</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.88315199654943399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.888946834723775</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.88610652870621698</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.88394710915963304</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.88176761993700903</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.88947888059550795</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.88388166561585302</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.89293719160197305</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.88590120594024702</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.89246481431601199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.89443097746938605</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.89010078172668705</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.89106984341643902</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.89616820193221303</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.89173139798857004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.88968783616153102</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.88757678840187104</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.89448522434417199</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.88966863205194302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.88229860486811895</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.89455917205657598</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.89055612318675503</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.89156249955461997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.89476174732265101</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.88961173139037797</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.89265559133436501</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.89094987589045205</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.88801070743245103</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.88909802990634601</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.88620472078482404</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.89354863300895104</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.883215895424039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.88519687500127098</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.88268731321572802</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.88938677660495602</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.88047180259874902</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.88773010397853502</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.88424947739358495</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.89287674492956104</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.89413288174623395</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.88862599503265305</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.88948060843203502</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.88275466692012305</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.88096766088377498</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.88478744733626902</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.88252644842506101</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.88530189272702398</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88199517485324996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.88703532401135399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.88654203906337403</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.884396696887364</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.894411887834208</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.88232402011829503</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.88424629108735298</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.88366894684087904</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.88374058740556805</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.88240054202071105</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.89372125717843898</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.88875221162503903</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.88900165569445599</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.88590879776693299</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.88500832688563502</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.88940021428117999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.88511402638261705</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.88783023777289305</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.88247759186916297</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.88726096989601899</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.88448655857099301</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.87710419793626104</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.88645509755074603</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.88451172380116605</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.88451096839636301</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.88235965018131202</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.88175523305450898</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.88643544480138503</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.87958532827119096</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.88136259574796605</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.88418902852284398</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.88135219817168597</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.88353354236510195</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.88101941334892897</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.88500241558512405</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.88065563692873305</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.88205087334282595</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.88444098030173801</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.87534308562577301</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.880099408595583</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.87570492186314497</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.87850491840484701</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.88969663023549805</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.88040457952314999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.88091849478416995</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.88274108225235903</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.87941909772233795</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.87982322305730298</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.88006427854097402</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.87834600317614997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.88057998904888202</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.88049068670716302</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.88376716593384297</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.87685222961823805</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.885240718950699</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.88203142060722906</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.87371844893167105</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.88105317321728804</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.87721385248537698</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.87864009529346498</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.88260388205016904</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.87580537308980899</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.87945592178912202</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.88046688821792296</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.88330052596099096</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.88110085696268603</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.87475610726084796</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.88407912335342398</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.87684765745020499</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.88066883294402398</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.88436504976747499</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.878195815684644</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.88795661673692905</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.88014825466660496</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.87634016006651305</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.88161249903340499</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.88160847326680603</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.87590872473267201</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.87682256367538902</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.88248027612556901</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.88097394240884097</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.88297030962326195</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.88008617948141099</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.88341401693767097</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.88276669143364295</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.884918751609302</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.87323859274830595</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.87953009798447901</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.88352736899484297</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.88828361201752404</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.87696758090899396</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.87951373091672203</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.87141638097806995</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.87610226321688001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.88459770696024698</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.87304073264080295</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.87581308013453296</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.87149058629591603</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.87750939100584902</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.88239868292846801</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.87233056554045196</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.87038972599792597</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.87143464681641802</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.87726615076121295</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.87873330417365303</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.87655180457236703</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.86473083409872997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.87671911790978196</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.88374880211186202</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.87670987192020899</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.868752181694461</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.87731123049003701</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.86543918422229604</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.87547275153508397</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.86594034162992195</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.86767372201684201</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.87910537406062605</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.87020255936345703</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.87327918139512195</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.86138696692562999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.86976536308596897</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.88490891155469398</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.87631199757499301</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.87390330187456899</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.86711567086026498</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.87958727845472395</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.88026370343193805</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.87327171051563202</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.867341335241546</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.87163526379456302</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.87230733528549198</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.87284225401792903</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.87194465028858403</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.864161612059415</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.87578036728903497</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.87150481562676396</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.87893164303668403</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.87601089995583403</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.86492674923414903</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.86747224750010199</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.867122495071038</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.87093840229086295</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.86586616629094104</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.87501804339553402</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.86830410018848003</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.86074580061467298</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.86450559281292605</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.85859694428170596</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.86319264481477698</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.86692836061116596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5DE-49CC-8F1E-4D6EBC302C1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1411454335"/>
+        <c:axId val="1355557727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1411407455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1355558975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1355558975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411407455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1355557727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411454335"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1411454335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1355557727"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Diagrammtitel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Helling!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kohärenz: u_mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Helling!$B$2:$KO$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.28584917297358498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53575779829499204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60706300649322598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58272958525986696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92014286357987796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91972040163785096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70170340214047799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76861812745784996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941339808249683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09862212939806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1410660819185501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2461969826536301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3251219970061801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35053492456424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4494092296561101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4707639374469801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3721708173835201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.28628460911049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.38194338736134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4263045666988501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4000542402210301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4571098463565499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.58980478093613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54103003978256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6173589678282001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52957234975523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.61398254834739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.59536723940109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.63191566918959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7381283403885499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7086582202603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8977731674734699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.71036250092376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.82402975579787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9005960566862601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8213894596357001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8011149512161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8647575024432601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.80380963118669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0504059805414601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0090365419828098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.79147400086289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.98054274783077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9333960227992599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0521775703959402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8886365327955901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.00777444196508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0421619934833499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.07015009851784</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1646999048693898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.18575467576209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.24604686066295</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2412243567546999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2380340370714902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2233584621422899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1434662609239901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2382199397155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1577439238022298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1224170906714601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1836402306057998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.15529771171206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1914916986993398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2392660794839299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2911725353958001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2868610491629702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3575410631807898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.22966616186079</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2670569212990599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.27499953704636</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.19632190921019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2081549242612599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2941696674015901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2096353128332602</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3040407093828001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2103253743901901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.28960426631859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3013837386085001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4516629402676799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.44241238933787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.33062736436269</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3663174405605099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6562023369004102</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3267523373547401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.47973593182622</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6832529894025399</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4917817189382201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2664114636394599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6401901680344801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3099042819675102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5755393809713598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3873847767087799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6291379606082699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3894011824130899</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6491628966888401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4389525653939099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.58109978938396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5619223424412398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5142737398605699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8952392327474299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8649844990891902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8482385857594301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8967094097519999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8010109735392001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6355869342082201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.94063711891468</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8855504814258</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.7474498694569101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.82904041670727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0297373567382899</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.86487327903524</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8895736759059498</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.07504664431137</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9043767000273801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.7268450195761398</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.87200051048938</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0755631347644798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9725110632512299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0295863218465899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0264031882809399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.0578693061250299</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0001057926599302</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9642907808639398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.21485229966166</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9411039620439001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.15762405415731</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.96056785198844</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.94758178523412</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.3885581557893598</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.20673651188498</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2676409530961399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.0847112214060801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.1996488954587798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3066823204669902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4105222901792098</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.3599628993433202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.27201635815987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.21064904186863</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.82325649867157</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.4663186008625599</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.4041102209376199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.35036441647709</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4892477799863002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3544476085830599</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1246009711704801</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.46067227941557</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.29535998175129</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5777860327437701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.4441057120622598</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6509875989560001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.4878028165801802</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5563136424187198</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6561314970390102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.5798515669107398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.76083780242976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.5384099114458998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5929537145844899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.48652207730375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.4731870886186802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6331233009161301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.71559742718421</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.5162802606820498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.59250881399712</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7252089417461098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5370394934283</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.5087219548916302</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.5126962938538999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6447488931338099</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.63621428779238</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.8424020625476398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.8979915256915199</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.08031913975225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.00549855064141</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8030578047983599</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7744369218251901</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8227770893978601</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8192308858641399</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.9116634287310701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.7944058212205398</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.9425417156107101</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0309909447531602</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.8650596266206998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8958057358435698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.9785130375903499</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2935077571468803</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.9462464696271198</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.2170703181810199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.29769506506008</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.93753999161313</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.4457085831537597</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.9757292255464001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.1990300867142301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.2408303700436498</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.90253459373276</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.9333168738906399</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9249488795734</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.8617622652120298</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.0988925119773896</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.4027627636950299</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.4809908375973002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.3392869829679404</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.29704243507675</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.3924501922013004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.1706063502825597</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.5293463312020297</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.0997427026430602</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.3512933886708298</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.6762702943055796</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.23598737801382</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.1900602105804801</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2607566648985298</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1630770267339798</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.5943730890710901</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.54254758659203</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2599688643657796</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.2370848237997603</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3968130543465396</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.6669034944982197</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1386505906711504</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.51142988825353</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4378809770273699</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4932924126507698</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.3103085416991496</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.0021602956358802</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.3692536989605397</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.7937926013473504</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4919529459224004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4533491273743904</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.60773637746804</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.3984258244198502</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.5168406643879102</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.5299123255292004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.5247795145020602</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.5851988199745204</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.4324463477677698</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.3980169130347599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.4603634697775902</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.97618581414297</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7572285531385399</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.5566739140891697</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.4106500950049004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.6351010860617103</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.6701787752049198</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.7515813681628103</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9126206225923799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.7263765918194602</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.7946320773259403</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.6749822319767</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.0059203680584803</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.7142203154765898</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5524007700522002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.92483813637336</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.9305597845965696</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.7098006410456499</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.7833192187304903</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.6532176466331201</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.7625665955733396</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.0186624831830997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.8282517507603098</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.57235191259642</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.59178942167358</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.0226880485835297</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.5198279831856496</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.34546315250841</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.1647590731850697</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.1330518539679897</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.1304033381146397</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.9057871776550996</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.1611587609985499</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.9550795901689604</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.3754359144469204</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.0412642784382902</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.5384061015724297</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.9047805792618897</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.8784142686104399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.0682712183183902</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.7277343164945602</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.89789346786743</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.2246723780260096</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.3054498688430503</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.2389405891958498</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.0607564455493597</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.1526794063056496</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.2889594685608197</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.1398036940874201</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.0948502115985299</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.3038886202617999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.6686768305617603</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.1590648761980997</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.2485563573938103</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.2329643031252697</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.1932537478186998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.0587797036263797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.2593041938852103</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.0226099380492899</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.2633002863966496</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.43495018682788</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.3688740238038903</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.53443267551663</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.3382705955442802</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.0876344453974403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1784-4272-B2FD-C0DFB4AD28B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1233352703"/>
+        <c:axId val="1168706495"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Helling!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distanz: Hellinger Mittellwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Helling!$B$3:$KO$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.922610165226599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86994679885406201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.879588884298934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86820301709487002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84808514191552997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86229984787992997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85932342316593502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85006223017851001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85386637896842599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85875459850004698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85460068126126199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.855121928206941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85983837703798405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86209506363386901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86105473436459801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.859289456177037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86444421621394896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86680681580349395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86561309718647295</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86434488172933899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87210699571559303</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87412192176552805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87565830816472301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87581066282074704</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87740609107782397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.875073947214835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87307740967831204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86955238651045597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87951156981520495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87844610375001897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87543757747274997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87554756379841803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87662314262352803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87929660356605299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87862827958065304</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87842359620181598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88200786735910397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.875850502787069</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.87600063197170797</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87316099373529799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87548870088568598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88142389163324697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88516860069229397</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.88507445933846896</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.88504959613940504</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88594666034911496</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88760641290417397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.88723537705001698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88754319955208605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89058401877351301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.88584060408699195</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.88911292899600503</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.89086597278458102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89029002915379396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88738356134269303</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.88739158353859304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.88882136155002101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88444728808831197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87892901061079998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87704743685672704</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88056496675507301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87894999545613595</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.88204567424638303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.87985190329637097</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.88765262553230895</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.88867623669498697</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88715663124536903</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.88557813882151204</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.88317024883700301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.88738142016302202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.886419997294697</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.88569961267612896</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.87717186026858196</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.87580526227675903</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.87576276205196002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.88891493342366101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.88839921534814803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.87602935830773099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.876103545954247</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.88818838818366896</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.88256940865043698</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.87652690231600805</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88884399293048</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.89245659519876597</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87851955549291605</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88767337990293704</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87687803293119704</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.87789095708718901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.87812678256157495</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.88503899767893401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.87872777142076497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87791263521725804</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.87845238685806304</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.88001973227484998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.88054420120211496</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.88193390053729803</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89017556487892002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.87863919445801297</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.88403367141192601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.8789816357486</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.87985402232157295</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.88315199654943399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.888946834723775</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.88610652870621698</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.88394710915963304</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.88176761993700903</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.88947888059550795</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.88388166561585302</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.89293719160197305</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.88590120594024702</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.89246481431601199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.89443097746938605</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.89010078172668705</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.89106984341643902</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.89616820193221303</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.89173139798857004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.88968783616153102</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.88757678840187104</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.89448522434417199</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.88966863205194302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.88229860486811895</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.89455917205657598</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.89055612318675503</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.89156249955461997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.89476174732265101</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.88961173139037797</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.89265559133436501</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.89094987589045205</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.88801070743245103</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.88909802990634601</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.88620472078482404</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.89354863300895104</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.883215895424039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.88519687500127098</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.88268731321572802</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.88938677660495602</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.88047180259874902</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.88773010397853502</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.88424947739358495</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.89287674492956104</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.89413288174623395</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.88862599503265305</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.88948060843203502</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.88275466692012305</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.88096766088377498</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.88478744733626902</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.88252644842506101</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.88530189272702398</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88199517485324996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.88703532401135399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.88654203906337403</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.884396696887364</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.894411887834208</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.88232402011829503</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.88424629108735298</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.88366894684087904</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.88374058740556805</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.88240054202071105</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.89372125717843898</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.88875221162503903</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.88900165569445599</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.88590879776693299</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.88500832688563502</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.88940021428117999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.88511402638261705</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.88783023777289305</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.88247759186916297</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.88726096989601899</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.88448655857099301</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.87710419793626104</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.88645509755074603</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.88451172380116605</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.88451096839636301</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.88235965018131202</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.88175523305450898</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.88643544480138503</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.87958532827119096</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.88136259574796605</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.88418902852284398</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.88135219817168597</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.88353354236510195</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.88101941334892897</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.88500241558512405</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.88065563692873305</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.88205087334282595</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.88444098030173801</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.87534308562577301</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.880099408595583</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.87570492186314497</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.87850491840484701</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.88969663023549805</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.88040457952314999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.88091849478416995</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.88274108225235903</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.87941909772233795</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.87982322305730298</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.88006427854097402</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.87834600317614997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.88057998904888202</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.88049068670716302</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.88376716593384297</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.87685222961823805</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.885240718950699</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.88203142060722906</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.87371844893167105</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.88105317321728804</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.87721385248537698</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.87864009529346498</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.88260388205016904</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.87580537308980899</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.87945592178912202</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.88046688821792296</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.88330052596099096</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.88110085696268603</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.87475610726084796</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.88407912335342398</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.87684765745020499</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.88066883294402398</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.88436504976747499</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.878195815684644</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.88795661673692905</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.88014825466660496</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.87634016006651305</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.88161249903340499</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.88160847326680603</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.87590872473267201</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.87682256367538902</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.88248027612556901</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.88097394240884097</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.88297030962326195</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.88008617948141099</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.88341401693767097</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.88276669143364295</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.884918751609302</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.87323859274830595</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.87953009798447901</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.88352736899484297</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.88828361201752404</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.87696758090899396</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.87951373091672203</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.87141638097806995</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.87610226321688001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.88459770696024698</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.87304073264080295</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.87581308013453296</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.87149058629591603</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.87750939100584902</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.88239868292846801</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.87233056554045196</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.87038972599792597</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.87143464681641802</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.87726615076121295</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.87873330417365303</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.87655180457236703</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.86473083409872997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.87671911790978196</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.88374880211186202</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.87670987192020899</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.868752181694461</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.87731123049003701</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.86543918422229604</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.87547275153508397</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.86594034162992195</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.86767372201684201</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.87910537406062605</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.87020255936345703</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.87327918139512195</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.86138696692562999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.86976536308596897</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.88490891155469398</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.87631199757499301</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.87390330187456899</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.86711567086026498</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.87958727845472395</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.88026370343193805</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.87327171051563202</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.867341335241546</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.87163526379456302</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.87230733528549198</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.87284225401792903</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.87194465028858403</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.864161612059415</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.87578036728903497</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.87150481562676396</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.87893164303668403</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.87601089995583403</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.86492674923414903</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.86747224750010199</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.867122495071038</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.87093840229086295</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.86586616629094104</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.87501804339553402</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.86830410018848003</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.86074580061467298</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.86450559281292605</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.85859694428170596</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.86319264481477698</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.86692836061116596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1784-4272-B2FD-C0DFB4AD28B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1233415903"/>
+        <c:axId val="1168707327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233352703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Titel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168706495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="3"/>
+        <c:tickMarkSkip val="3"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168706495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Titel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233352703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1168707327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.84000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Titel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233415903"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1233415903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1168707327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2253,6 +7032,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2286,6 +8084,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13EA2E4-CBE7-446D-9B8B-BBFB596B5A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC7226E-5FF2-4D0D-B5E9-CB576E719FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2589,12 +8459,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:KO3"/>
+      <selection activeCell="A2" sqref="A2:KO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3502,7 +9658,7 @@
       </c>
     </row>
     <row r="2" spans="1:301" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4407,7 +10563,7 @@
       </c>
     </row>
     <row r="3" spans="1:301" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
